--- a/報表/113宿營預算編列.xlsx
+++ b/報表/113宿營預算編列.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYC\Desktop\東華\113宿營\報表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EC97BE-FAA0-4198-91CB-25C99D3AAA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BBA3AA-B7BA-472A-9575-42EFB982CB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{631C937F-6EC2-4D79-953B-9826C1CD403C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t>項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,7 +298,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>訂金30000</t>
+    <t>激戰世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社團</t>
+  </si>
+  <si>
+    <t>熱舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一人3片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂金30000已付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +334,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -356,12 +383,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -382,7 +421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,8 +430,26 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -714,8 +771,8 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" activeCellId="1" sqref="F34 F20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -761,21 +818,21 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <f>600+100+600</f>
-        <v>1300</v>
+        <f>600+600</f>
+        <v>1200</v>
       </c>
       <c r="E2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
       </c>
       <c r="G2">
         <f>D2*E2</f>
-        <v>117000</v>
+        <v>96000</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -788,9 +845,15 @@
       <c r="C3" t="s">
         <v>71</v>
       </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>97</v>
+      </c>
       <c r="G3">
-        <f t="shared" ref="G3:G13" si="0">D3*E3</f>
-        <v>0</v>
+        <f t="shared" ref="G3:G22" si="0">D3*E3</f>
+        <v>7760</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -803,39 +866,57 @@
       <c r="C4" t="s">
         <v>70</v>
       </c>
+      <c r="D4" s="9">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
       <c r="G4">
         <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5">
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G6">
+      <c r="D6" s="7">
+        <v>150</v>
+      </c>
+      <c r="E6" s="7">
+        <v>80</v>
+      </c>
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -848,9 +929,17 @@
       <c r="C7" t="s">
         <v>70</v>
       </c>
+      <c r="D7" s="9">
+        <v>290</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8700</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -863,9 +952,15 @@
       <c r="C8" t="s">
         <v>70</v>
       </c>
+      <c r="D8" s="9">
+        <v>10000</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -879,11 +974,14 @@
         <v>6</v>
       </c>
       <c r="D9">
-        <v>420</v>
+        <v>36000</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -897,54 +995,57 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="E10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G13">
+      <c r="D13" s="11">
+        <v>500</v>
+      </c>
+      <c r="G13" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -956,139 +1057,250 @@
       <c r="C14" t="s">
         <v>14</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>15</v>
       </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15">
+        <v>80</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16">
+        <v>2500</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17">
+        <v>2000</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <f>SUM(G2:G17)</f>
+        <v>197120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <f>G23/75</f>
+        <v>2628.2666666666669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33">
+        <v>2600</v>
+      </c>
+      <c r="G33">
+        <v>60</v>
+      </c>
+      <c r="H33">
+        <f>F33*G33</f>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34">
+        <v>2300</v>
+      </c>
+      <c r="G34">
+        <v>18</v>
+      </c>
+      <c r="H34">
+        <f>F34*G34</f>
+        <v>41400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <f>H33+H34</f>
+        <v>197400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <f>H35-G23</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
@@ -1152,6 +1364,7 @@
   <autoFilter ref="C1:C67" xr:uid="{F3B2DF08-DAA7-4530-822C-DD7AFA493965}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/報表/113宿營預算編列.xlsx
+++ b/報表/113宿營預算編列.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYC\Desktop\東華\113宿營\報表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BBA3AA-B7BA-472A-9575-42EFB982CB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FF6EFF-E1FD-4A37-91B1-A48FA286490C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{631C937F-6EC2-4D79-953B-9826C1CD403C}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">收支表!$C$1:$C$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">預算編列!$C$1:$C$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">預算編列!$C$1:$C$65</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="103">
   <si>
     <t>項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +326,81 @@
   </si>
   <si>
     <t>訂金30000已付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤肉價錢計算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>價格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>份數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚會獎勵計算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十人份為單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>優派雞排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沐嵐茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沐嵐珍奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獲利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗牌製作計算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隊排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗牌</t>
+  </si>
+  <si>
+    <t>狗牌繩子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇異筆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +411,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -382,8 +457,15 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,23 +474,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -421,12 +530,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -434,22 +540,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,600 +880,831 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B2DF08-DAA7-4530-822C-DD7AFA493965}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" activeCellId="1" sqref="F34 F20:F21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="20.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="5" customWidth="1"/>
+    <col min="4" max="5" width="10.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5"/>
+    <col min="8" max="8" width="29.88671875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="5" customWidth="1"/>
+    <col min="11" max="12" width="8.88671875" style="5"/>
+    <col min="13" max="13" width="27" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <f>600+600</f>
         <v>1200</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>80</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <f>D2*E2</f>
         <v>96000</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="I2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>80</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>97</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G22" si="0">D3*E3</f>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G20" si="0">D3*E3</f>
         <v>7760</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>45</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>80</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7">
+        <v>1530</v>
+      </c>
+      <c r="K4" s="7">
+        <v>7</v>
+      </c>
+      <c r="L4" s="7">
+        <f>J4*K4</f>
+        <v>10710</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="D5" s="10">
+        <v>100</v>
+      </c>
+      <c r="E5" s="10">
+        <v>30</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7">
+        <v>795</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <f>J5*K5</f>
+        <v>795</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="8">
+        <v>11505</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>11505</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <f>D7*E7</f>
+        <v>10000</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7">
+        <f>L4+L5</f>
+        <v>11505</v>
+      </c>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1550</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="0"/>
+        <v>1550</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>36000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5">
+        <v>82</v>
+      </c>
+      <c r="E10" s="5">
+        <v>80</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>6560</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="10">
+        <v>610</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
+        <f t="shared" si="0"/>
+        <v>610</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="7">
+        <v>80</v>
+      </c>
+      <c r="K11" s="7">
+        <v>10</v>
+      </c>
+      <c r="L11" s="7">
+        <f>J11*K11</f>
+        <v>800</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="H12" s="10"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7">
+        <v>10</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" ref="L12:L13" si="1">J12*K12</f>
+        <v>300</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="5">
         <v>150</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E13" s="5">
         <v>80</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="9">
-        <v>290</v>
-      </c>
-      <c r="E7">
-        <v>30</v>
-      </c>
-      <c r="G7">
-        <v>8700</v>
-      </c>
-      <c r="H7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="9">
-        <v>10000</v>
-      </c>
-      <c r="E8">
+      <c r="I13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="7">
+        <v>45</v>
+      </c>
+      <c r="K13" s="7">
+        <v>10</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2500</v>
+      </c>
+      <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="G14" s="5">
         <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>36000</v>
-      </c>
-      <c r="E9">
+        <v>2500</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7">
+        <f>L11+L12+L13</f>
+        <v>1550</v>
+      </c>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="5">
         <v>1</v>
       </c>
-      <c r="G9">
+      <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>82</v>
-      </c>
-      <c r="E10">
-        <v>80</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>6560</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="7">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>13</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="11">
-        <v>500</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="I17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14">
+      <c r="I18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="7">
+        <v>10</v>
+      </c>
+      <c r="K18" s="7">
+        <v>6</v>
+      </c>
+      <c r="L18" s="7">
+        <f>J18*K18</f>
+        <v>60</v>
+      </c>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15">
-        <v>150</v>
-      </c>
-      <c r="E15">
-        <v>80</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16">
-        <v>2500</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17">
-        <v>2000</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="G18">
+      <c r="I19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="7">
+        <v>40</v>
+      </c>
+      <c r="K19" s="7">
+        <v>10</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" ref="L19:L21" si="2">J19*K19</f>
+        <v>400</v>
+      </c>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>19</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="I20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="7">
+        <v>30</v>
+      </c>
+      <c r="K20" s="7">
+        <v>3</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="G21" s="5">
+        <f>SUM(G2:G15)</f>
+        <v>193085</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="7">
+        <v>30</v>
+      </c>
+      <c r="K21" s="7">
+        <v>2</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="G22" s="5">
+        <f>G21/75</f>
+        <v>2574.4666666666667</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7">
+        <f>SUM(L18:L21)</f>
+        <v>610</v>
+      </c>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="11">
+        <v>500</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11">
+        <f>D23*E23</f>
+        <v>500</v>
+      </c>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="G23">
-        <f>SUM(G2:G17)</f>
-        <v>197120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="G24">
-        <f>G23/75</f>
-        <v>2628.2666666666669</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="E33" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F33">
+      <c r="C29" s="12">
         <v>2600</v>
       </c>
-      <c r="G33">
+      <c r="D29" s="12">
         <v>60</v>
       </c>
-      <c r="H33">
-        <f>F33*G33</f>
+      <c r="E29" s="12">
+        <f>C29*D29</f>
         <v>156000</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="E34" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F34">
+      <c r="C30" s="12">
         <v>2300</v>
       </c>
-      <c r="G34">
+      <c r="D30" s="12">
         <v>18</v>
       </c>
-      <c r="H34">
-        <f>F34*G34</f>
+      <c r="E30" s="12">
+        <f>C30*D30</f>
         <v>41400</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="H35">
-        <f>H33+H34</f>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12">
+        <f>E29+E30</f>
         <v>197400</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="H36">
-        <f>H35-G23</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12">
+        <f>E31-G21</f>
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
+      <c r="A49" s="6"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
+      <c r="A50" s="6"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
+      <c r="A51" s="6"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
+      <c r="A52" s="6"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
+      <c r="A53" s="6"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
+      <c r="A54" s="6"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
+      <c r="A55" s="6"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
+      <c r="A56" s="6"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
+      <c r="A57" s="6"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
+      <c r="A58" s="6"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
+      <c r="A59" s="6"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
+      <c r="A60" s="6"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
+      <c r="A61" s="6"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
+      <c r="A62" s="6"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
+      <c r="A63" s="6"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
+      <c r="A64" s="6"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
+      <c r="A65" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C67" xr:uid="{F3B2DF08-DAA7-4530-822C-DD7AFA493965}"/>
+  <autoFilter ref="C1:C65" xr:uid="{F3B2DF08-DAA7-4530-822C-DD7AFA493965}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1739,720 +2082,720 @@
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>45432</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>45432</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>45432</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>45432</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>45432</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>45432</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>45432</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>45432</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>45432</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>45432</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>45432</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>45432</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>45432</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>45432</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>45432</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>45432</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>45432</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>45433</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>45433</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>45433</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>45433</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>45433</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>45433</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>45433</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>45433</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>45434</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2">
         <f>SUM(E2:E54)</f>
         <v>26000</v>
       </c>

--- a/報表/113宿營預算編列.xlsx
+++ b/報表/113宿營預算編列.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYC\Desktop\東華\113宿營\報表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FF6EFF-E1FD-4A37-91B1-A48FA286490C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AB0FF6-63A7-498A-80AE-0C696DFE6533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{631C937F-6EC2-4D79-953B-9826C1CD403C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
   <si>
     <t>項目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,22 @@
   </si>
   <si>
     <t>奇異筆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具製作計算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4K西卡紙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油性筆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3瓦楞板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,8 +899,8 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -941,14 +957,14 @@
         <v>1200</v>
       </c>
       <c r="E2" s="5">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="5">
         <f>D2*E2</f>
-        <v>96000</v>
+        <v>72000</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>83</v>
@@ -975,11 +991,11 @@
         <v>80</v>
       </c>
       <c r="E3" s="5">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" ref="G3:G20" si="0">D3*E3</f>
-        <v>7760</v>
+        <v>6000</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7" t="s">
@@ -1009,11 +1025,11 @@
         <v>45</v>
       </c>
       <c r="E4" s="5">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="0"/>
-        <v>3600</v>
+        <v>2610</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7">
@@ -1044,12 +1060,12 @@
         <v>100</v>
       </c>
       <c r="E5" s="10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>97</v>
@@ -1255,12 +1271,16 @@
       <c r="C12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="10">
+        <v>436</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>436</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="7"/>
@@ -1468,7 +1488,7 @@
       </c>
       <c r="G21" s="5">
         <f>SUM(G2:G15)</f>
-        <v>193085</v>
+        <v>165771</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>102</v>
@@ -1490,8 +1510,8 @@
         <v>21</v>
       </c>
       <c r="G22" s="5">
-        <f>G21/75</f>
-        <v>2574.4666666666667</v>
+        <f>G21/60</f>
+        <v>2762.85</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1527,26 +1547,83 @@
       <c r="A24" s="6">
         <v>23</v>
       </c>
+      <c r="I24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
+      <c r="I25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="7">
+        <v>8</v>
+      </c>
+      <c r="K25" s="7">
+        <v>50</v>
+      </c>
+      <c r="L25" s="7">
+        <f>J25*K25</f>
+        <v>400</v>
+      </c>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>25</v>
       </c>
+      <c r="I26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J26" s="7">
+        <v>16</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" ref="L26:L27" si="3">J26*K26</f>
+        <v>16</v>
+      </c>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>27</v>
       </c>
+      <c r="I27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="7">
+        <v>20</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>28</v>
       </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7">
+        <f>SUM(L25+L26+L27)</f>
+        <v>436</v>
+      </c>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
@@ -1557,11 +1634,11 @@
         <v>2600</v>
       </c>
       <c r="D29" s="12">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E29" s="12">
         <f>C29*D29</f>
-        <v>156000</v>
+        <v>104000</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -1589,7 +1666,7 @@
       <c r="D31" s="12"/>
       <c r="E31" s="12">
         <f>E29+E30</f>
-        <v>197400</v>
+        <v>145400</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -1601,7 +1678,7 @@
       <c r="D32" s="12"/>
       <c r="E32" s="12">
         <f>E31-G21</f>
-        <v>4315</v>
+        <v>-20371</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
